--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_14_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_14_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-695617.4292411725</v>
+        <v>-698235.4316077996</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>79.85940250589124</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>10.37794188721723</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>77.98548758871954</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>13.2224040209352</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -820,16 +820,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>18.56489249210074</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>176.1581058090403</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -896,19 +896,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>356.9335240442764</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>294.6439244871896</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1057,7 +1057,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1066,13 +1066,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>52.3447119885119</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>3.423165620643597</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>11.37624141617787</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>38.47978089371833</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,13 +1300,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>119.443235012896</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>84.99782759111537</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>21.63824106824953</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740352</v>
       </c>
       <c r="D16" t="n">
-        <v>1.799772605716168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>126.926382450742</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>33.66638448560004</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2239,13 +2239,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>136.2892803597723</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>18.70843787977265</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2713,10 +2713,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>101.6969570046971</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187868</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>103.8784673763408</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3187,7 +3187,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,22 +3427,22 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261728</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308922</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,22 +3664,22 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261728</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3721,7 +3721,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,7 +3901,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H46" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652583</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1540.262284242502</v>
+        <v>1308.132293616578</v>
       </c>
       <c r="C2" t="n">
-        <v>1540.262284242502</v>
+        <v>939.1697766761665</v>
       </c>
       <c r="D2" t="n">
-        <v>1181.996585635751</v>
+        <v>858.5037135389026</v>
       </c>
       <c r="E2" t="n">
-        <v>1181.996585635751</v>
+        <v>472.7154609406584</v>
       </c>
       <c r="F2" t="n">
-        <v>771.0106808461439</v>
+        <v>61.72955615105082</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>61.72955615105082</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>61.72955615105082</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2483.56610861357</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2274.820467219395</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2274.820467219395</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V2" t="n">
-        <v>1943.757579875824</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W2" t="n">
-        <v>1943.757579875824</v>
+        <v>2084.871465656512</v>
       </c>
       <c r="X2" t="n">
-        <v>1930.401616218314</v>
+        <v>2084.871465656512</v>
       </c>
       <c r="Y2" t="n">
-        <v>1540.262284242502</v>
+        <v>1694.7321336807</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182521</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
@@ -4413,7 +4413,7 @@
         <v>423.148951518066</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495377</v>
+        <v>717.8525085495378</v>
       </c>
       <c r="M3" t="n">
         <v>1081.114527508758</v>
@@ -4422,13 +4422,13 @@
         <v>1468.399656105703</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878149</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2362.9309660677</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4446,10 +4446,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>238.9353861545976</v>
+        <v>1758.982323005929</v>
       </c>
       <c r="C4" t="n">
-        <v>69.99920322669072</v>
+        <v>1590.046140078022</v>
       </c>
       <c r="D4" t="n">
-        <v>69.99920322669072</v>
+        <v>1439.929500665686</v>
       </c>
       <c r="E4" t="n">
-        <v>69.99920322669072</v>
+        <v>1292.016407083293</v>
       </c>
       <c r="F4" t="n">
-        <v>69.99920322669072</v>
+        <v>1145.126459585383</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936614</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936614</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936614</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>1002.60916787878</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>1449.530858294982</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>2508.006390496682</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T4" t="n">
-        <v>1413.467639269232</v>
+        <v>2339.360847594891</v>
       </c>
       <c r="U4" t="n">
-        <v>1413.467639269232</v>
+        <v>2161.423366979699</v>
       </c>
       <c r="V4" t="n">
-        <v>1158.783151063345</v>
+        <v>2161.423366979699</v>
       </c>
       <c r="W4" t="n">
-        <v>869.3659810263848</v>
+        <v>2161.423366979699</v>
       </c>
       <c r="X4" t="n">
-        <v>641.3764301283675</v>
+        <v>2161.423366979699</v>
       </c>
       <c r="Y4" t="n">
-        <v>420.5838509848373</v>
+        <v>1940.630787836168</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>827.4904500197511</v>
+        <v>1468.828881207249</v>
       </c>
       <c r="C5" t="n">
-        <v>827.4904500197511</v>
+        <v>1099.866364266837</v>
       </c>
       <c r="D5" t="n">
-        <v>827.4904500197511</v>
+        <v>741.6006656600869</v>
       </c>
       <c r="E5" t="n">
-        <v>827.4904500197511</v>
+        <v>355.8124130618426</v>
       </c>
       <c r="F5" t="n">
-        <v>466.9515368437143</v>
+        <v>348.8669123126392</v>
       </c>
       <c r="G5" t="n">
         <v>51.24678656800311</v>
@@ -4568,7 +4568,7 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
         <v>795.7553530872915</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U5" t="n">
-        <v>2308.758267664335</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V5" t="n">
-        <v>1977.695380320764</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="W5" t="n">
-        <v>1977.695380320764</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="X5" t="n">
-        <v>1604.229622059685</v>
+        <v>1855.428721271371</v>
       </c>
       <c r="Y5" t="n">
-        <v>1214.090290083873</v>
+        <v>1855.428721271371</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4620,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D6" t="n">
         <v>607.9167021542605</v>
@@ -4632,10 +4632,10 @@
         <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H6" t="n">
         <v>71.67401812057901</v>
@@ -4647,19 +4647,19 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>507.2413987429759</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>801.9449557744476</v>
       </c>
       <c r="M6" t="n">
-        <v>1165.206974733667</v>
+        <v>1165.206974733668</v>
       </c>
       <c r="N6" t="n">
         <v>1552.492103330613</v>
       </c>
       <c r="O6" t="n">
-        <v>1884.562538506774</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P6" t="n">
         <v>2447.023413292609</v>
@@ -4683,7 +4683,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X6" t="n">
         <v>1307.279776881661</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>938.9442613508774</v>
+        <v>663.7249087127072</v>
       </c>
       <c r="C7" t="n">
-        <v>770.0080784229705</v>
+        <v>494.7887257848004</v>
       </c>
       <c r="D7" t="n">
-        <v>619.8914390106347</v>
+        <v>494.7887257848004</v>
       </c>
       <c r="E7" t="n">
-        <v>471.9783454282416</v>
+        <v>346.8756322024072</v>
       </c>
       <c r="F7" t="n">
-        <v>325.0883979303312</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
         <v>51.24678656800311</v>
@@ -4750,25 +4750,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1583.572673621455</v>
       </c>
       <c r="T7" t="n">
-        <v>1413.467639269233</v>
+        <v>1583.572673621455</v>
       </c>
       <c r="U7" t="n">
-        <v>1413.467639269233</v>
+        <v>1583.572673621455</v>
       </c>
       <c r="V7" t="n">
-        <v>1413.467639269233</v>
+        <v>1583.572673621455</v>
       </c>
       <c r="W7" t="n">
-        <v>1124.050469232272</v>
+        <v>1294.155503584494</v>
       </c>
       <c r="X7" t="n">
-        <v>1120.592726181117</v>
+        <v>1066.165952686477</v>
       </c>
       <c r="Y7" t="n">
-        <v>1120.592726181117</v>
+        <v>845.373373542947</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1517.887535471216</v>
+        <v>1285.591601078695</v>
       </c>
       <c r="C8" t="n">
-        <v>1148.925018530804</v>
+        <v>916.6290841382831</v>
       </c>
       <c r="D8" t="n">
-        <v>790.659319924054</v>
+        <v>558.3633855315327</v>
       </c>
       <c r="E8" t="n">
-        <v>790.659319924054</v>
+        <v>558.3633855315327</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>147.3774807419251</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410103</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066532</v>
+        <v>2788.565186649822</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796418</v>
+        <v>2435.796531379708</v>
       </c>
       <c r="X8" t="n">
-        <v>1904.487375535338</v>
+        <v>2062.330773118628</v>
       </c>
       <c r="Y8" t="n">
-        <v>1904.487375535338</v>
+        <v>1672.191441142817</v>
       </c>
     </row>
     <row r="9">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>652.894418388452</v>
+        <v>826.5851666348717</v>
       </c>
       <c r="C10" t="n">
-        <v>652.894418388452</v>
+        <v>657.6489837069648</v>
       </c>
       <c r="D10" t="n">
-        <v>502.7777789761162</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E10" t="n">
-        <v>354.8646853937231</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F10" t="n">
-        <v>354.8646853937231</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G10" t="n">
-        <v>187.1618487684421</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1645.778206672847</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V10" t="n">
-        <v>1391.09371846696</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W10" t="n">
-        <v>1101.676548429999</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X10" t="n">
-        <v>873.6869975319821</v>
+        <v>1008.233631465111</v>
       </c>
       <c r="Y10" t="n">
-        <v>652.894418388452</v>
+        <v>1008.233631465111</v>
       </c>
     </row>
     <row r="11">
@@ -5021,37 +5021,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5124,10 +5124,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>119.290296770379</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N12" t="n">
         <v>1344.266747951538</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>282.8695714929399</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5224,25 +5224,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,16 +5288,16 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,28 +5352,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>923.0670414349511</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1550.665004989558</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2102.574735228845</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2526.197884723913</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D16" t="n">
-        <v>343.0994656851783</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E16" t="n">
-        <v>343.0994656851783</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5507,25 +5507,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,31 +5534,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745237</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>951.7772127656159</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>782.841029837709</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253733</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2126.309465880251</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5747,13 +5747,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075804</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332386</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>559.0424953278208</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>559.0424953278208</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797186</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797186</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2242.251440075317</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2022.649975098258</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1733.574748442456</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1478.890260236569</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1189.473090199608</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>961.4835393015907</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>740.6909601580605</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5978,16 +5978,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -5996,10 +5996,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6127,22 +6127,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000582</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6300,22 +6300,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6361,19 +6361,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>411.1294017454277</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,25 +6449,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014779</v>
@@ -6479,31 +6479,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>365.9405071576786</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6695,19 +6695,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,37 +6947,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D37" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
         <v>483.825546038073</v>
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,40 +7184,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7330,25 +7330,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
@@ -7363,16 +7363,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7400,19 +7400,19 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,13 +7421,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319314</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656807</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150015</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942647</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580106</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345468</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954146</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,28 +7591,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,13 +7658,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942652</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345473</v>
+        <v>268.555303634547</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
         <v>898.2659412311323</v>
@@ -7828,7 +7828,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547834</v>
@@ -7846,7 +7846,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8070,16 +8070,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>168.7434581780648</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>84.94186588374734</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,13 +8295,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>211.0329012241562</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>211.0329012241559</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>274.8236391147917</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,22 +22595,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>45.46672781007484</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22717,7 +22717,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>147.7417075527034</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>123.7828069546817</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>45.44677382459267</v>
       </c>
       <c r="D16" t="n">
-        <v>146.8157004124962</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229321</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>38.5977558415268</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856647</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23938,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016485</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>252.5180899036441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24127,13 +24127,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>44.73700564187229</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>146.8157004124962</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24601,10 +24601,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>65.54986409393075</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>41.54258064659049</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1018668.327951441</v>
+        <v>1018668.32795144</v>
       </c>
     </row>
     <row r="3">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1178901.785060682</v>
+        <v>1178901.785060681</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1178901.785060682</v>
+        <v>1178901.785060681</v>
       </c>
     </row>
     <row r="10">
@@ -26320,25 +26320,25 @@
         <v>246312.530959285</v>
       </c>
       <c r="E2" t="n">
-        <v>242143.9799070019</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="F2" t="n">
         <v>242143.9799070018</v>
       </c>
       <c r="G2" t="n">
-        <v>242143.9799070017</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="H2" t="n">
-        <v>242143.9799070017</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="I2" t="n">
-        <v>242143.9799070017</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="J2" t="n">
         <v>242143.9799070018</v>
       </c>
       <c r="K2" t="n">
-        <v>242143.9799070018</v>
+        <v>242143.9799070017</v>
       </c>
       <c r="L2" t="n">
         <v>242143.9799070018</v>
@@ -26347,13 +26347,13 @@
         <v>246312.5309592848</v>
       </c>
       <c r="N2" t="n">
-        <v>246312.530959285</v>
+        <v>246312.5309592848</v>
       </c>
       <c r="O2" t="n">
-        <v>246312.530959285</v>
+        <v>246312.5309592849</v>
       </c>
       <c r="P2" t="n">
-        <v>246312.530959285</v>
+        <v>246312.5309592849</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,10 +26372,10 @@
         <v>192627.1404403379</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26390,10 +26390,10 @@
         <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819077</v>
+        <v>48293.97000819068</v>
       </c>
       <c r="M3" t="n">
         <v>104482.7459291436</v>
@@ -26415,43 +26415,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>62447.76739985951</v>
+        <v>62447.76739985942</v>
       </c>
       <c r="C4" t="n">
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810786</v>
+        <v>88524.23512810787</v>
       </c>
       <c r="E4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756644</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.200356756603</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.200356756583</v>
+        <v>9337.200356756573</v>
       </c>
       <c r="L4" t="n">
         <v>9337.200356756603</v>
       </c>
       <c r="M4" t="n">
-        <v>17328.05961985007</v>
+        <v>17328.05961985002</v>
       </c>
       <c r="N4" t="n">
-        <v>17328.05961985007</v>
+        <v>17328.05961985003</v>
       </c>
       <c r="O4" t="n">
         <v>17328.05961985005</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1062866.203290154</v>
+        <v>-1063191.548380436</v>
       </c>
       <c r="C6" t="n">
-        <v>16648.48482733779</v>
+        <v>16648.48482733787</v>
       </c>
       <c r="D6" t="n">
         <v>-142772.7851705541</v>
       </c>
       <c r="E6" t="n">
-        <v>-193728.212081017</v>
+        <v>-193762.9500064527</v>
       </c>
       <c r="F6" t="n">
-        <v>131684.2497263381</v>
+        <v>131649.5118009022</v>
       </c>
       <c r="G6" t="n">
-        <v>131684.249726338</v>
+        <v>131649.5118009025</v>
       </c>
       <c r="H6" t="n">
-        <v>131684.2497263381</v>
+        <v>131649.5118009023</v>
       </c>
       <c r="I6" t="n">
-        <v>131684.249726338</v>
+        <v>131649.5118009024</v>
       </c>
       <c r="J6" t="n">
-        <v>-35920.92808364446</v>
+        <v>-35955.66600908018</v>
       </c>
       <c r="K6" t="n">
-        <v>131684.2497263381</v>
+        <v>131649.5118009021</v>
       </c>
       <c r="L6" t="n">
-        <v>83390.27971814729</v>
+        <v>83355.54179271168</v>
       </c>
       <c r="M6" t="n">
-        <v>21337.60955637571</v>
+        <v>21337.60955637574</v>
       </c>
       <c r="N6" t="n">
+        <v>125820.3554855194</v>
+      </c>
+      <c r="O6" t="n">
         <v>125820.3554855195</v>
       </c>
-      <c r="O6" t="n">
-        <v>125820.3554855196</v>
-      </c>
       <c r="P6" t="n">
-        <v>125820.3554855196</v>
+        <v>125820.3554855195</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175392</v>
@@ -26793,7 +26793,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26814,16 +26814,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26969,7 +26969,7 @@
         <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>55.33197078525327</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,10 +27430,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>356.5086966575338</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27540,19 +27540,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27591,16 +27591,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>110.0690483121603</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,19 +27616,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>49.94252169743504</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>116.9037782857644</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27777,7 +27777,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27786,13 +27786,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,10 +27822,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>142.3177483732256</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
@@ -27837,10 +27837,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>222.2864897683936</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27862,16 +27862,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>395.4998043255335</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>372.4419447597351</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,13 +28020,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>25.31177990142474</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>140.7118277979218</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28740,7 +28740,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>-9.426533627750662e-13</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28770,7 +28770,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>-3.959144123655279e-12</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>-1.70530256582424e-13</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="38">
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
   </sheetData>
@@ -31042,43 +31042,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,7 +31133,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31142,25 +31142,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31233,13 +31233,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31844,13 +31844,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>290.6810969936921</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>167.1165249313368</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,16 +32309,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32467,7 +32467,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32546,34 +32546,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,34 +32783,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32962,13 +32962,13 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
         <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S26" t="n">
         <v>125.31755462929</v>
@@ -33020,10 +33020,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,31 +34436,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>504.1681401741877</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>201.4225882146019</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34866,7 +34866,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34875,7 +34875,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35015,13 +35015,13 @@
         <v>62.98022089091742</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>397.620397467641</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>577.9642335061964</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35492,13 +35492,13 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>159.3393849103587</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>27.13475084531527</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36610,13 +36610,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,10 +36668,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37710,7 +37710,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
         <v>397.5465471980852</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,25 +38090,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
